--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034631.550694925</v>
+        <v>1031902.807409139</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673439</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>200.2365107674141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>77.72878559814581</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>190.271393580297</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>314.1600675835498</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>78.08506320366507</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>4.25260122792275</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>185.039846252987</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>35.97520683593338</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>143.6052641270672</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>171.4092428893623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.4531907226514</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300254</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114098</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035195</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.852724170217616</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842613</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034036</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,7 +1585,7 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337148</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>233.2715658672551</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>56.17490305427332</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983347</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890399</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>94.30373791808154</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64713141731143</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>91.89996056624796</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.4849283993771</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>23.10998325717227</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>94.91529601901398</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2857567969021</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.054803223514</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1513.092286283102</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.826587676352</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1154.826587676352</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1679.782215419422</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1679.782215419422</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1321.516516812672</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>935.7282642144276</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>524.7423594248201</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1679.782215419422</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.5651556036576</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036576</v>
+        <v>496.5252400791544</v>
       </c>
       <c r="X7" t="n">
-        <v>290.5651556036576</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.5651556036576</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1200.239783601035</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>1200.239783601035</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>1200.239783601035</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>789.2538788114275</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>848.1892110771031</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2556.373128924107</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2660.810498254653</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2329.747610911083</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>1976.978955640968</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.978955640968</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1586.839623665157</v>
+        <v>1897.594638687514</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>396.0456706731709</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>900.4072105392895</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>363.7633394282103</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>218.7075170776374</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="W10" t="n">
-        <v>764.7254868573889</v>
+        <v>591.7528903262277</v>
       </c>
       <c r="X10" t="n">
-        <v>591.5848374741946</v>
+        <v>363.7633394282103</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>363.7633394282103</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2017.088884830059</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1166.296315748939</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282897</v>
+        <v>808.0306171421885</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846524</v>
+        <v>422.2423645439444</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950449</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469187</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469187</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J11" t="n">
         <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420332</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765426</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687102</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882242</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234592</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455662</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971442</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604051</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260481</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990366</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990366</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.324431014555</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503047</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469187</v>
+        <v>196.8120623792129</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831295</v>
+        <v>477.1621322376503</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104393</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282782</v>
+        <v>1337.658805224961</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.1484301321046</v>
+        <v>385.5135230760949</v>
       </c>
       <c r="C13" t="n">
-        <v>758.2870925864304</v>
+        <v>216.577340148188</v>
       </c>
       <c r="D13" t="n">
-        <v>608.1704531740946</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="E13" t="n">
-        <v>460.2573595917015</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="F13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="G13" t="n">
-        <v>313.3674120937911</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469187</v>
+        <v>78.51106622469185</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600397</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457698</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
@@ -5218,31 +5218,31 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906988</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457034</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.203615897322</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.203615897322</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1168.786445860362</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>940.7968949623444</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>940.7968949623444</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555046</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>742.4225746200327</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>328.4394675364392</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126174</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.16411959498</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619168</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>106.3138404733493</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>698.3321947254768</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1320.428158124813</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>725.9685878896547</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>557.0324049617478</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>964.359379037342</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>907.6170527198944</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098238</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819169</v>
+        <v>344.9174178121608</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998251</v>
       </c>
       <c r="E19" t="n">
-        <v>516.3896878871881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892777</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041576</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138376</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="20">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987578</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048576</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925219</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>296.7882229101288</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>296.7882229101288</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>481.4479471244849</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>186.6449060441817</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.6725264685181</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406112</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987576</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,7 +6871,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876694</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597625</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327645</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048576</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>444.701316492522</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101289</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122185</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122185</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.4026036630042</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>883.8931825606601</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>733.7765431483243</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>585.8634495659312</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>438.9735020680208</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>271.7774027829007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7573,7 +7573,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1455.270409462337</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1234.477830318807</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,7 +7819,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>368.1017737596992</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.860446537899</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>157.4097144773271</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.2806509408292</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187089</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806772</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238021</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>166.3940969284102</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146337</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729275</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>50.29152613728925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>65.06136363537665</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>162.4097502978215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823447</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.89260457059981</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>191.8807364711626</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>104.8770068749574</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>73.62417772602089</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.09972495271775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>84.77391660561969</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>45.37941682720991</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>889346.8385117447</v>
+        <v>889346.8385117445</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>968095.2776857362</v>
+        <v>968095.2776857357</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.471348106</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973455.4713481062</v>
+        <v>973455.471348106</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973455.4713481063</v>
+        <v>973455.4713481062</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.8397795042</v>
+        <v>405380.8397795041</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
@@ -26344,16 +26344,16 @@
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="N2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>588754.3687919675</v>
+        <v>588754.368791967</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051377</v>
+        <v>166521.3471051375</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>76530.81132370012</v>
+        <v>76530.81132370008</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848909</v>
+        <v>43782.40655848892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
         <v>5578.415609376701</v>
@@ -26430,34 +26430,34 @@
         <v>5671.003945457393</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682748</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682747</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682733</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682746</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682752</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682749</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.72216214713</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431176.3993156311</v>
+        <v>-431176.3993156314</v>
       </c>
       <c r="C6" t="n">
-        <v>158791.4798989133</v>
+        <v>158791.4798989132</v>
       </c>
       <c r="D6" t="n">
-        <v>2987.673805118189</v>
+        <v>2987.673805118364</v>
       </c>
       <c r="E6" t="n">
-        <v>-275045.6667839872</v>
+        <v>-275255.6310278316</v>
       </c>
       <c r="F6" t="n">
-        <v>169139.3948364836</v>
+        <v>169093.4898409182</v>
       </c>
       <c r="G6" t="n">
-        <v>325963.3272033349</v>
+        <v>325928.5892778984</v>
       </c>
       <c r="H6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134778</v>
       </c>
       <c r="I6" t="n">
-        <v>337130.5634389137</v>
+        <v>337095.8255134777</v>
       </c>
       <c r="J6" t="n">
-        <v>160707.3442463205</v>
+        <v>160672.6063208849</v>
       </c>
       <c r="K6" t="n">
-        <v>337130.5634389134</v>
+        <v>337095.8255134777</v>
       </c>
       <c r="L6" t="n">
-        <v>337130.5634389135</v>
+        <v>337095.8255134778</v>
       </c>
       <c r="M6" t="n">
-        <v>260599.7521152134</v>
+        <v>260565.0141897775</v>
       </c>
       <c r="N6" t="n">
-        <v>293348.1568804245</v>
+        <v>293313.4189549889</v>
       </c>
       <c r="O6" t="n">
-        <v>334107.265461689</v>
+        <v>334072.527536253</v>
       </c>
       <c r="P6" t="n">
-        <v>337130.5634389136</v>
+        <v>337095.8255134778</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,7 +26747,7 @@
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086483</v>
+        <v>981.3883278086481</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>618.6941671564913</v>
+        <v>618.6941671564908</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>307.1010550540927</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540927</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1010550540927</v>
+        <v>307.1010550540925</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173586</v>
+        <v>178.7569625173579</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>206.6395349742973</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>68.70517704842337</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>28.31325977179779</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>99.6241024372452</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,19 +27664,19 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>68.3488994429041</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>282.2703971086682</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>197.6939954104935</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>215.1795793863673</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>23.64155697156068</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>54.30041249967482</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>8.277822871605167e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28785,7 +28785,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-4.6237289625133e-13</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.87304630148565</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726058</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216974</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857428</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898389</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294409</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615138</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895589</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951044</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475345</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188519</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059648</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256417</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>355.5501343440778</v>
+        <v>583.7591506492925</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147142</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431811</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205472</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697588</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190411</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691792</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973095</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761897</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570612</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826906</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765139</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>139.4267020936831</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>556.6870392399089</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1979415092072</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>225.7004414100109</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040318</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276252</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584701</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.096770593248</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077542</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062443</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151094</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.5209569215661</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457675</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>213.4161004220595</v>
+        <v>441.6251167272741</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313809</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987366</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062169</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701844</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112338</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410832</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998361</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12.5890754270164</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
